--- a/TrainerManagementSystem/src/main/resources/AdminExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/AdminExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amarj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACD9A61-8499-4C35-92C9-126BE6009A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D0B02-A128-4A79-8923-121CBE92082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6616A4DB-B896-4037-996A-BEB64B374973}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6616A4DB-B896-4037-996A-BEB64B374973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,16 +419,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,15 +444,15 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,7 +460,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
